--- a/data/temp_master.xlsx
+++ b/data/temp_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSHU\OneDrive\Desktop\Mithila Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CAADE3-3842-44B6-9D5E-6274BA52713E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB495DA6-8B59-4DE5-A4E8-7B8E5C4E1CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
     <t>B0DYP5QVW8</t>
   </si>
   <si>
-    <t>M.F.G. FSSAI</t>
+    <t>FSSAI</t>
   </si>
 </sst>
 </file>

--- a/data/temp_master.xlsx
+++ b/data/temp_master.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -504,6 +504,30 @@
   <si>
     <t>B0F9YGS1GY</t>
   </si>
+  <si>
+    <t>Arwa Chawal</t>
+  </si>
+  <si>
+    <t>B0F9YR7SQT</t>
+  </si>
+  <si>
+    <t>B0F9YPQCR8</t>
+  </si>
+  <si>
+    <t>B0F9YR81BZ</t>
+  </si>
+  <si>
+    <t>Jau Atta</t>
+  </si>
+  <si>
+    <t>B0FBHRZ1PQ</t>
+  </si>
+  <si>
+    <t>B0FBHSCGPD</t>
+  </si>
+  <si>
+    <t>B0FBJ2V43Y</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -685,6 +709,16 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4338,16 +4372,28 @@
       <c r="Z87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C88" s="21">
+        <v>299.0</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="15"/>
+      <c r="I88" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -4366,16 +4412,28 @@
       <c r="Z88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="C89" s="21">
+        <v>499.0</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="15"/>
+      <c r="I89" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -4394,16 +4452,28 @@
       <c r="Z89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="A90" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="C90" s="21">
+        <v>999.0</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="15"/>
+      <c r="I90" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -4422,15 +4492,15 @@
       <c r="Z90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="17"/>
+      <c r="I91" s="23"/>
       <c r="J91" s="15"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -4450,16 +4520,28 @@
       <c r="Z91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
+      <c r="A92" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="C92" s="19">
+        <v>299.0</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="15"/>
+      <c r="I92" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -4478,16 +4560,28 @@
       <c r="Z92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="C93" s="19">
+        <v>499.0</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="15"/>
+      <c r="I93" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -4506,16 +4600,28 @@
       <c r="Z93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
+      <c r="A94" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="C94" s="19">
+        <v>699.0</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="15"/>
+      <c r="I94" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>

--- a/data/temp_master.xlsx
+++ b/data/temp_master.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -528,6 +528,18 @@
   <si>
     <t>B0FBJ2V43Y</t>
   </si>
+  <si>
+    <t>Makai Atta</t>
+  </si>
+  <si>
+    <t>B0FBKFHQ44</t>
+  </si>
+  <si>
+    <t>B0FBKDTM51</t>
+  </si>
+  <si>
+    <t>B0FBKDZY5F</t>
+  </si>
 </sst>
 </file>
 
@@ -4668,16 +4680,28 @@
       <c r="Z95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+      <c r="A96" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="C96" s="19">
+        <v>299.0</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="15"/>
+      <c r="I96" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -4696,16 +4720,28 @@
       <c r="Z96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="C97" s="19">
+        <v>499.0</v>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="15"/>
+      <c r="I97" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -4724,16 +4760,28 @@
       <c r="Z97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
+      <c r="A98" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="C98" s="19">
+        <v>699.0</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="11">
+        <v>1.1124999000076E13</v>
+      </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="15"/>
+      <c r="I98" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
